--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoellerc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{734B56E0-CEB8-4068-B3CD-7F9233D40E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F892BD3-2AE6-482F-89F7-85230B340634}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C5E40E-BAB8-42D0-81A5-31E99AA24BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="-120" windowWidth="27270" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="14006" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risiken" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>Risikoanalyse</t>
   </si>
@@ -253,13 +253,94 @@
   </si>
   <si>
     <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>Fehlende Erfahrung mit Spring Boot</t>
+  </si>
+  <si>
+    <t>Tutorials durcharbeiten, pair programming, Mentorhilfe einholen</t>
+  </si>
+  <si>
+    <t>Sicherheitslücken im Authentifizierungssystem</t>
+  </si>
+  <si>
+    <t>Verwendung von Spring Security, gründliches Testing und Code Reviews</t>
+  </si>
+  <si>
+    <t>Verzögerungen durch fehlende Erfahrung</t>
+  </si>
+  <si>
+    <t>Mittel bis Hoch</t>
+  </si>
+  <si>
+    <t>Agile Methoden, regelmäßige Retrospektiven, Pufferzeiten einplanen</t>
+  </si>
+  <si>
+    <t>Unklare Anforderungen</t>
+  </si>
+  <si>
+    <t>Anforderungen früh definieren, Änderungsmanagement etablieren</t>
+  </si>
+  <si>
+    <t>Performanceprobleme bei Matching/Chat</t>
+  </si>
+  <si>
+    <t>Gering</t>
+  </si>
+  <si>
+    <t>Testdaten nutzen, Lasttests durchführen, Optimierungen einplanen</t>
+  </si>
+  <si>
+    <t>Datenschutzverstöße</t>
+  </si>
+  <si>
+    <t>DSGVO-Schulung, Datenschutzerklärung, Pseudonymisierung von Daten</t>
+  </si>
+  <si>
+    <t>Teamkommunikation &amp; Motivation</t>
+  </si>
+  <si>
+    <t>Wöchentliche Meetings, Aufgabenverteilung, klare Rollen</t>
+  </si>
+  <si>
+    <t>Unerfahrenheit im Umgang mit Spring Boot führte zu langsamer Entwicklung und häufigen Fehlern.</t>
+  </si>
+  <si>
+    <t>Schwachstellen in der Login-Implementierung gefährden die Datensicherheit der Nutzer.</t>
+  </si>
+  <si>
+    <t>Mangelndes Know-how im Team verursachte erhebliche Verzögerungen im Projektablauf.</t>
+  </si>
+  <si>
+    <t>Fehlende oder widersprüchliche Anforderungen erschwerten die zielgerichtete Umsetzung.</t>
+  </si>
+  <si>
+    <t>Die Matching- und Chatfunktionen litten unter langen Ladezeiten und ineffizientem Code.</t>
+  </si>
+  <si>
+    <t>Unsachgemäße Datenverarbeitung führte zu Verstößen gegen geltende Datenschutzrichtlinien.</t>
+  </si>
+  <si>
+    <t>Kommunikationsprobleme und geringe Motivation beeinträchtigten die Zusammenarbeit im Team.</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Allgemein</t>
+  </si>
+  <si>
+    <t>Simon Moser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,18 +454,24 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
+      <sz val="7"/>
+      <color rgb="FFF0F6FC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +523,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D1117"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +691,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -732,9 +831,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -774,9 +870,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -806,6 +899,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1314,424 +1416,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6" style="64" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" style="54" customWidth="1"/>
-    <col min="4" max="4" width="59.85546875" style="54" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="54" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="54" customWidth="1"/>
-    <col min="8" max="11" width="11.42578125" style="54"/>
-    <col min="12" max="12" width="18.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="54"/>
-    <col min="14" max="14" width="77.42578125" style="54" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="54"/>
+    <col min="1" max="1" width="6" style="63" customWidth="1"/>
+    <col min="2" max="2" width="23.69140625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="48.3046875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="83.3828125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.53515625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="12.3046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" style="53" customWidth="1"/>
+    <col min="8" max="11" width="11.3828125" style="53"/>
+    <col min="12" max="12" width="18.15234375" style="53" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3828125" style="53"/>
+    <col min="14" max="14" width="77.3828125" style="53" customWidth="1"/>
+    <col min="15" max="16384" width="11.3828125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="66" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66" t="s">
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="53"/>
-    </row>
-    <row r="2" spans="1:15" ht="30">
-      <c r="A2" s="55" t="s">
+      <c r="N1" s="52"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="56" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="56" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="62" customFormat="1">
-      <c r="A3" s="58">
+    <row r="3" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="57">
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="59">
-        <v>1</v>
-      </c>
-      <c r="I3" s="59">
+      <c r="B3" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="47">
+        <v>45770</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="58">
         <v>4</v>
       </c>
-      <c r="J3" s="59">
+      <c r="I3" s="58">
+        <v>3</v>
+      </c>
+      <c r="J3" s="58">
+        <v>5</v>
+      </c>
+      <c r="K3" s="58">
+        <f t="shared" ref="K3:K9" si="0">(H3+I3+J3)/3</f>
         <v>4</v>
       </c>
-      <c r="K3" s="59">
-        <f t="shared" ref="K3:K9" si="0">(H3+I3+J3)/3</f>
+      <c r="L3" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="M3" s="58">
+        <f t="shared" ref="M3:M11" si="1">K3+L3*5</f>
+        <v>7.75</v>
+      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="60"/>
+    </row>
+    <row r="4" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="57">
+        <v>2</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="58">
+        <v>2</v>
+      </c>
+      <c r="I4" s="58">
         <v>3</v>
       </c>
-      <c r="L3" s="60">
-        <v>0.85</v>
-      </c>
-      <c r="M3" s="59">
-        <f t="shared" ref="M3:M11" si="1">K3+L3*5</f>
-        <v>7.25</v>
-      </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="61"/>
-    </row>
-    <row r="4" spans="1:15" s="62" customFormat="1">
-      <c r="A4" s="58">
+      <c r="J4" s="58">
+        <v>4</v>
+      </c>
+      <c r="K4" s="58">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L4" s="59">
+        <v>0.45</v>
+      </c>
+      <c r="M4" s="58">
+        <f>K4+L4*5</f>
+        <v>5.25</v>
+      </c>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="57">
+        <v>3</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="58">
+        <v>4</v>
+      </c>
+      <c r="I5" s="58">
         <v>2</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="59">
+      <c r="J5" s="58">
         <v>4</v>
       </c>
-      <c r="I4" s="59">
+      <c r="K5" s="58">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L5" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="58">
+        <f>K5+L5*5</f>
+        <v>5.8333333333333339</v>
+      </c>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="57">
+        <v>4</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="58">
         <v>3</v>
       </c>
-      <c r="J4" s="59">
+      <c r="I6" s="58">
+        <v>3</v>
+      </c>
+      <c r="J6" s="58">
         <v>4</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K6" s="58">
         <f t="shared" si="0"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="L4" s="60">
-        <v>0.9</v>
-      </c>
-      <c r="M4" s="59">
-        <f>K4+L4*5</f>
-        <v>8.1666666666666661</v>
-      </c>
-      <c r="N4" s="38"/>
-    </row>
-    <row r="5" spans="1:15" s="62" customFormat="1">
-      <c r="A5" s="58">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L6" s="59">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M6" s="58">
+        <f>K6+L6*5</f>
+        <v>6.0833333333333339</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="57">
+        <v>5</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="58">
+        <v>2</v>
+      </c>
+      <c r="I7" s="58">
         <v>3</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="59">
+      <c r="J7" s="58">
+        <v>3</v>
+      </c>
+      <c r="K7" s="58">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L7" s="59">
+        <v>0.15</v>
+      </c>
+      <c r="M7" s="58">
+        <f>K7+L7*5</f>
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="57">
+        <v>6</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="58">
         <v>2</v>
       </c>
-      <c r="I5" s="59">
-        <v>1</v>
-      </c>
-      <c r="J5" s="59">
-        <v>4</v>
-      </c>
-      <c r="K5" s="59">
+      <c r="I8" s="58">
+        <v>2</v>
+      </c>
+      <c r="J8" s="58">
+        <v>3</v>
+      </c>
+      <c r="K8" s="58">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="L5" s="60">
-        <v>0.2</v>
-      </c>
-      <c r="M5" s="59">
-        <f>K5+L5*5</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="N5" s="38"/>
-    </row>
-    <row r="6" spans="1:15" s="62" customFormat="1">
-      <c r="A6" s="58">
+      <c r="L8" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="58">
+        <f>K8+L8*5</f>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="57">
+        <v>7</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="58">
         <v>4</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="59">
+      <c r="I9" s="58">
+        <v>1</v>
+      </c>
+      <c r="J9" s="58">
         <v>3</v>
       </c>
-      <c r="I6" s="59">
-        <v>4</v>
-      </c>
-      <c r="J6" s="59">
-        <v>4</v>
-      </c>
-      <c r="K6" s="59">
-        <f t="shared" si="0"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="L6" s="60">
-        <v>0.3</v>
-      </c>
-      <c r="M6" s="59">
-        <f>K6+L6*5</f>
-        <v>5.1666666666666661</v>
-      </c>
-      <c r="N6" s="38"/>
-    </row>
-    <row r="7" spans="1:15" s="62" customFormat="1">
-      <c r="A7" s="58">
-        <v>5</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="59">
-        <v>4</v>
-      </c>
-      <c r="I7" s="59">
-        <v>4</v>
-      </c>
-      <c r="J7" s="59">
-        <v>4</v>
-      </c>
-      <c r="K7" s="59">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L7" s="60">
-        <v>0.7</v>
-      </c>
-      <c r="M7" s="59">
-        <f>K7+L7*5</f>
-        <v>7.5</v>
-      </c>
-      <c r="N7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" s="62" customFormat="1">
-      <c r="A8" s="58">
-        <v>6</v>
-      </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="59">
-        <v>2</v>
-      </c>
-      <c r="I8" s="59">
-        <v>2</v>
-      </c>
-      <c r="J8" s="59">
-        <v>3</v>
-      </c>
-      <c r="K8" s="59">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="L8" s="60">
-        <v>1</v>
-      </c>
-      <c r="M8" s="59">
-        <f>K8+L8*5</f>
-        <v>7.3333333333333339</v>
-      </c>
-      <c r="N8" s="38"/>
-    </row>
-    <row r="9" spans="1:15" s="62" customFormat="1">
-      <c r="A9" s="58">
-        <v>7</v>
-      </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="59">
-        <v>4</v>
-      </c>
-      <c r="I9" s="59">
-        <v>1</v>
-      </c>
-      <c r="J9" s="59">
-        <v>3</v>
-      </c>
-      <c r="K9" s="59">
+      <c r="K9" s="58">
         <f t="shared" si="0"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="L9" s="60">
-        <v>0.9</v>
-      </c>
-      <c r="M9" s="59">
+      <c r="L9" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="58">
         <f t="shared" si="1"/>
-        <v>7.1666666666666661</v>
+        <v>5.1666666666666661</v>
       </c>
       <c r="N9" s="38"/>
     </row>
-    <row r="10" spans="1:15" s="62" customFormat="1">
-      <c r="A10" s="58">
+    <row r="10" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="57">
         <v>8</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="42"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
-      <c r="H10" s="59">
-        <v>2</v>
-      </c>
-      <c r="I10" s="59">
-        <v>1</v>
-      </c>
-      <c r="J10" s="59">
-        <v>2</v>
-      </c>
-      <c r="K10" s="59">
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58">
         <f t="shared" ref="K10:K11" si="2">(H10+I10+J10)/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L10" s="60">
-        <v>0.3</v>
-      </c>
-      <c r="M10" s="59">
+        <v>0</v>
+      </c>
+      <c r="L10" s="59"/>
+      <c r="M10" s="58">
         <f t="shared" si="1"/>
-        <v>3.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="N10" s="38"/>
     </row>
-    <row r="11" spans="1:15" s="62" customFormat="1">
-      <c r="A11" s="58">
+    <row r="11" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="57">
         <v>9</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="51"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="38"/>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="59">
-        <v>5</v>
-      </c>
-      <c r="I11" s="59">
-        <v>1</v>
-      </c>
-      <c r="J11" s="59">
-        <v>3</v>
-      </c>
-      <c r="K11" s="59">
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L11" s="60">
-        <v>0.7</v>
-      </c>
-      <c r="M11" s="59">
+        <v>0</v>
+      </c>
+      <c r="L11" s="59"/>
+      <c r="M11" s="58">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="N11" s="38"/>
     </row>
-    <row r="12" spans="1:15" s="62" customFormat="1">
-      <c r="A12" s="58">
+    <row r="12" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="57">
         <v>10</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="42"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
-      <c r="H12" s="59">
-        <v>4</v>
-      </c>
-      <c r="I12" s="59">
-        <v>1</v>
-      </c>
-      <c r="J12" s="59">
-        <v>3</v>
-      </c>
-      <c r="K12" s="59">
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58">
         <f>(H12+I12+J12)/3</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="L12" s="60">
-        <v>0.9</v>
-      </c>
-      <c r="M12" s="59">
+        <v>0</v>
+      </c>
+      <c r="L12" s="59"/>
+      <c r="M12" s="58">
         <f>K12+L12*5</f>
-        <v>7.1666666666666661</v>
+        <v>0</v>
       </c>
       <c r="N12" s="38"/>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="65"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="65"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="65"/>
+    <row r="18" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
+      <c r="B18" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
+      <c r="B19" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
+      <c r="B20" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
+      <c r="B21" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
+      <c r="B22" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
+      <c r="B23" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
+      <c r="B24" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1785,41 +2010,41 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="C3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="77.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.15234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.69140625" customWidth="1"/>
+    <col min="4" max="4" width="55.15234375" customWidth="1"/>
+    <col min="5" max="5" width="24.69140625" customWidth="1"/>
+    <col min="6" max="6" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" customWidth="1"/>
+    <col min="12" max="12" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.3828125" customWidth="1"/>
+    <col min="14" max="14" width="77.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="46"/>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="66" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="45" t="s">
@@ -1827,7 +2052,7 @@
       </c>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1861,7 +2086,7 @@
       <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="66"/>
+      <c r="L2" s="64"/>
       <c r="M2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +2094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="41" customFormat="1">
+    <row r="3" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="42"/>
@@ -1899,7 +2124,7 @@
       </c>
       <c r="N3" s="38"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
@@ -1923,7 +2148,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
@@ -1947,7 +2172,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -1971,7 +2196,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -1995,7 +2220,7 @@
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
@@ -2019,7 +2244,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -2043,7 +2268,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -2067,7 +2292,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
@@ -2091,7 +2316,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
@@ -2142,32 +2367,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.3046875" customWidth="1"/>
+    <col min="3" max="3" width="33.3046875" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.3828125" customWidth="1"/>
+    <col min="6" max="6" width="34.3828125" customWidth="1"/>
+    <col min="7" max="7" width="26.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:7" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="46"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2190,7 +2415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="42"/>
@@ -2199,7 +2424,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
@@ -2208,7 +2433,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
@@ -2217,7 +2442,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -2226,7 +2451,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -2235,7 +2460,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
@@ -2244,7 +2469,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -2253,7 +2478,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -2262,7 +2487,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
@@ -2271,7 +2496,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
@@ -2292,21 +2517,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="8" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="8"/>
-    <col min="4" max="4" width="13.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="8"/>
-    <col min="6" max="11" width="15.7109375" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="2.53515625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="11.3828125" style="8"/>
+    <col min="4" max="4" width="13.3046875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.3828125" style="8"/>
+    <col min="6" max="11" width="15.69140625" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="11.3828125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" thickBot="1">
+    <row r="1" spans="1:11" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="9"/>
@@ -2319,7 +2544,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2328,15 +2553,15 @@
       <c r="F2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
-    </row>
-    <row r="3" spans="1:11" ht="60.75" customHeight="1" thickBot="1">
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2363,7 +2588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="60.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2390,7 +2615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="60.75" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2417,7 +2642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="32"/>
@@ -2440,7 +2665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="7" spans="1:11" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="31"/>
       <c r="C7" s="33"/>
@@ -2463,9 +2688,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="23.25" thickBot="1">
+    <row r="8" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="71" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -2501,9 +2726,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="34.5" thickBot="1">
+    <row r="9" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
-      <c r="B9" s="74"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="22" t="s">
         <v>51</v>
       </c>
@@ -2537,9 +2762,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="23.25" thickBot="1">
+    <row r="10" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
-      <c r="B10" s="74"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="22" t="s">
         <v>54</v>
       </c>
@@ -2573,9 +2798,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="23.25" thickBot="1">
+    <row r="11" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
-      <c r="B11" s="74"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="22" t="s">
         <v>56</v>
       </c>
@@ -2609,9 +2834,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45.75" thickBot="1">
+    <row r="12" spans="1:11" ht="31.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
-      <c r="B12" s="75"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="22" t="s">
         <v>58</v>
       </c>
@@ -2645,7 +2870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25">
+    <row r="13" spans="1:11" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2658,7 +2883,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" ht="14.25">
+    <row r="14" spans="1:11" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2671,7 +2896,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="18">
+    <row r="15" spans="1:11" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2688,7 +2913,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="18">
+    <row r="16" spans="1:11" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2705,7 +2930,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" ht="18">
+    <row r="17" spans="1:11" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2722,7 +2947,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" ht="14.25">
+    <row r="18" spans="1:11" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2735,7 +2960,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="14.25">
+    <row r="19" spans="1:11" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2748,7 +2973,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" ht="14.25">
+    <row r="20" spans="1:11" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2761,7 +2986,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" ht="14.25">
+    <row r="21" spans="1:11" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2774,7 +2999,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" ht="14.25">
+    <row r="22" spans="1:11" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2787,7 +3012,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="1:11" ht="14.25">
+    <row r="23" spans="1:11" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2800,7 +3025,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" ht="14.25">
+    <row r="24" spans="1:11" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2824,15 +3049,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="755efad7-dc12-449b-9499-2fa5961c761c" xsi:nil="true"/>
@@ -2841,6 +3057,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3043,13 +3268,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2A971A9-44FA-4EEE-85C8-7B7C2ADDA082}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E10B10A9-0724-4679-A65E-5CA578F9D8A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="755efad7-dc12-449b-9499-2fa5961c761c"/>
+    <ds:schemaRef ds:uri="020d2db2-b189-4737-8be6-331c78f59cb6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E10B10A9-0724-4679-A65E-5CA578F9D8A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2A971A9-44FA-4EEE-85C8-7B7C2ADDA082}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB4B3B3-F284-472A-8A92-263E9A8D8CEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB4B3B3-F284-472A-8A92-263E9A8D8CEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="020d2db2-b189-4737-8be6-331c78f59cb6"/>
+    <ds:schemaRef ds:uri="755efad7-dc12-449b-9499-2fa5961c761c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C5E40E-BAB8-42D0-81A5-31E99AA24BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD08CFC-DB9E-4E3F-8971-88A92F94C9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="14006" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="14006" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risiken" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>Risikoanalyse</t>
   </si>
@@ -258,49 +258,22 @@
     <t>Fehlende Erfahrung mit Spring Boot</t>
   </si>
   <si>
-    <t>Tutorials durcharbeiten, pair programming, Mentorhilfe einholen</t>
-  </si>
-  <si>
     <t>Sicherheitslücken im Authentifizierungssystem</t>
   </si>
   <si>
-    <t>Verwendung von Spring Security, gründliches Testing und Code Reviews</t>
-  </si>
-  <si>
     <t>Verzögerungen durch fehlende Erfahrung</t>
   </si>
   <si>
-    <t>Mittel bis Hoch</t>
-  </si>
-  <si>
-    <t>Agile Methoden, regelmäßige Retrospektiven, Pufferzeiten einplanen</t>
-  </si>
-  <si>
     <t>Unklare Anforderungen</t>
   </si>
   <si>
-    <t>Anforderungen früh definieren, Änderungsmanagement etablieren</t>
-  </si>
-  <si>
     <t>Performanceprobleme bei Matching/Chat</t>
   </si>
   <si>
-    <t>Gering</t>
-  </si>
-  <si>
-    <t>Testdaten nutzen, Lasttests durchführen, Optimierungen einplanen</t>
-  </si>
-  <si>
     <t>Datenschutzverstöße</t>
   </si>
   <si>
-    <t>DSGVO-Schulung, Datenschutzerklärung, Pseudonymisierung von Daten</t>
-  </si>
-  <si>
     <t>Teamkommunikation &amp; Motivation</t>
-  </si>
-  <si>
-    <t>Wöchentliche Meetings, Aufgabenverteilung, klare Rollen</t>
   </si>
   <si>
     <t>Unerfahrenheit im Umgang mit Spring Boot führte zu langsamer Entwicklung und häufigen Fehlern.</t>
@@ -340,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,19 +432,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFF0F6FC"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,12 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0D1117"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +652,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -900,13 +861,10 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1418,9 +1376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1510,21 +1468,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F3" s="47">
         <v>45770</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="58">
         <v>4</v>
       </c>
@@ -1553,19 +1511,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>91</v>
-      </c>
       <c r="F4" s="47"/>
-      <c r="G4" s="76"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="58">
         <v>2</v>
       </c>
@@ -1593,19 +1551,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F5" s="47"/>
-      <c r="G5" s="76"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="58">
         <v>4</v>
       </c>
@@ -1632,20 +1590,20 @@
       <c r="A6" s="57">
         <v>4</v>
       </c>
-      <c r="B6" s="75" t="s">
-        <v>89</v>
+      <c r="B6" s="74" t="s">
+        <v>80</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F6" s="47"/>
-      <c r="G6" s="76"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="58">
         <v>3</v>
       </c>
@@ -1673,19 +1631,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F7" s="47"/>
-      <c r="G7" s="76"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="58">
         <v>2</v>
       </c>
@@ -1713,19 +1671,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
         <v>77</v>
       </c>
-      <c r="D8" t="s">
-        <v>86</v>
-      </c>
       <c r="E8" s="38" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F8" s="47"/>
-      <c r="G8" s="76"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="58">
         <v>2</v>
       </c>
@@ -1753,19 +1711,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F9" s="47"/>
-      <c r="G9" s="76"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="58">
         <v>4</v>
       </c>
@@ -1860,103 +1818,26 @@
       </c>
       <c r="N12" s="38"/>
     </row>
-    <row r="18" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
-      <c r="B18" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
-      <c r="B19" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
-      <c r="B20" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
-      <c r="B21" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
-      <c r="B22" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
-      <c r="B23" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="29.6" x14ac:dyDescent="0.4">
-      <c r="B24" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>80</v>
-      </c>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="53"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="53"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="53"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="53"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="53"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="53"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2517,7 +2398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eiche\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE32DAE-827F-4BDE-9D84-CEDF107FC72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F374BC-437F-49B7-A197-42F7763ED60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risiken" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>Risikoanalyse</t>
   </si>
@@ -331,6 +331,15 @@
   </si>
   <si>
     <t>Eichelberger</t>
+  </si>
+  <si>
+    <t>Terminplan verspätet</t>
+  </si>
+  <si>
+    <t>Eichelberger Tobias</t>
+  </si>
+  <si>
+    <t>nein</t>
   </si>
 </sst>
 </file>
@@ -1403,9 +1412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1935,9 +1944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2021,32 +2030,44 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="42"/>
+      <c r="A3" s="43">
+        <v>3</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>91</v>
+      </c>
       <c r="D3" s="38"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="E3" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="39">
+        <v>45799</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>93</v>
+      </c>
       <c r="H3" s="37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I3" s="37">
         <v>2</v>
       </c>
       <c r="J3" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="37">
         <f t="shared" ref="K3" si="0">(H3+I3+J3)/3</f>
-        <v>2.3333333333333335</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="L3" s="40">
         <v>1</v>
       </c>
       <c r="M3" s="37">
         <f t="shared" ref="M3" si="1">K3+L3*5</f>
-        <v>7.3333333333333339</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="N3" s="38"/>
     </row>
@@ -2293,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2341,12 +2362,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="57">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="42"/>
       <c r="D3" s="38"/>
       <c r="E3" s="66" t="s">
         <v>90</v>
@@ -2375,8 +2394,12 @@
       <c r="A5" s="57">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>91</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="66" t="s">
         <v>90</v>
@@ -2485,7 +2508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -3017,12 +3040,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="755efad7-dc12-449b-9499-2fa5961c761c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="020d2db2-b189-4737-8be6-331c78f59cb6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3225,20 +3250,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="755efad7-dc12-449b-9499-2fa5961c761c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="020d2db2-b189-4737-8be6-331c78f59cb6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2A971A9-44FA-4EEE-85C8-7B7C2ADDA082}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E10B10A9-0724-4679-A65E-5CA578F9D8A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="755efad7-dc12-449b-9499-2fa5961c761c"/>
+    <ds:schemaRef ds:uri="020d2db2-b189-4737-8be6-331c78f59cb6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3263,12 +3289,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E10B10A9-0724-4679-A65E-5CA578F9D8A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2A971A9-44FA-4EEE-85C8-7B7C2ADDA082}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="755efad7-dc12-449b-9499-2fa5961c761c"/>
-    <ds:schemaRef ds:uri="020d2db2-b189-4737-8be6-331c78f59cb6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>